--- a/biology/Botanique/Xylébore_disparate/Xylébore_disparate.xlsx
+++ b/biology/Botanique/Xylébore_disparate/Xylébore_disparate.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Xyl%C3%A9bore_disparate</t>
+          <t>Xylébore_disparate</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Xyleborus dispar
 Le xylébore disparate (Xyleborus dispar) est une espèce d'insectes coléoptères. C'est un xylophage de la famille des Curculionidae, qui fore des galeries dans le bois des branches ou du tronc de plusieurs espèces d'arbres fruitiers et d'essences forestières.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Xyl%C3%A9bore_disparate</t>
+          <t>Xylébore_disparate</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'insecte adulte est de petite taille, 1,8 à 2 mm pour le mâle et 3 à 3,5 mm pour la femelle. Le corps est de forme hémi-cylindrique. Les élytres sont de couleur foncée, brillants et ornés de stries longitudinales.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Xyl%C3%A9bore_disparate</t>
+          <t>Xylébore_disparate</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Après l'accouplement, à partir d'avril-mai, les femelles creusent dans les branches des arbres des réseaux de galeries caractéristiques, comprenant une galerie de pénétration perpendiculaire à la surface de la branche, une galerie en anneau formant un cercle complet, et des galeries verticales en impasse, courtes, dans l'axe de la branche, qui servent de galeries de ponte.
 La ponte a lieu environ deux semaines après le début de l'attaque. Chaque femelle dépose environ 50 œufs, qui éclosent après quelques jours d'incubation.
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Xyl%C3%A9bore_disparate</t>
+          <t>Xylébore_disparate</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,7 +596,9 @@
           <t>Moyens de lutte</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>L'utilisation d'insecticides ne donne pas beaucoup de résultats étant donné que l'insecte et ses larves se trouvent souvent à l'abri dans le bois. De plus la période de vol, relativement longue, limite grandement l'efficacité de tels traitements.
 Destruction des branches attaquées.
